--- a/data/trans_dic/P32E$casa_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$casa_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.7072991535985135</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4580874717197917</v>
+        <v>0.4580874717197916</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6804793252507195</v>
+        <v>0.6804793252507194</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5345797365635893</v>
+        <v>0.5111431073285575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04524453021103926</v>
+        <v>0.06512056308743609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5138227396500095</v>
+        <v>0.5116503784822602</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8483178990338901</v>
+        <v>0.834835740382448</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8197781664323258</v>
+        <v>0.8261482385610077</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.5218345024462958</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2899937876052556</v>
+        <v>0.2899937876052555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4652971573994951</v>
+        <v>0.4652971573994952</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3523140780500556</v>
+        <v>0.3413339941988141</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1105975801882918</v>
+        <v>0.1053913006980802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3205703531623813</v>
+        <v>0.3215708121282009</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6805201040183561</v>
+        <v>0.7049460703681488</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5512151791215284</v>
+        <v>0.5430386203507673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6108154783824916</v>
+        <v>0.6051827656314303</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.4103190322547762</v>
+        <v>0.4103190322547763</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3302083472843589</v>
+        <v>0.3302083472843588</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3804473562487013</v>
+        <v>0.3804473562487014</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2259794127686961</v>
+        <v>0.2374545311746355</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1233269441794319</v>
+        <v>0.1235160001476814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2330042888477863</v>
+        <v>0.2434688557863771</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6148333992969576</v>
+        <v>0.6176135473625912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6260652246364429</v>
+        <v>0.6144251237912874</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5574681037663545</v>
+        <v>0.5333889229327781</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.5074276096439028</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.400754516549837</v>
+        <v>0.4007545165498368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4713967148607103</v>
+        <v>0.4713967148607104</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3351763176201725</v>
+        <v>0.3502523485187387</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2193771231883669</v>
+        <v>0.2172640585841935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.354670202765111</v>
+        <v>0.3500777527309834</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6575501831435131</v>
+        <v>0.6790432555699417</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6013156276293046</v>
+        <v>0.6056256911919539</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6022606368898098</v>
+        <v>0.6062872844709781</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.539288938615168</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3617116607930215</v>
+        <v>0.3617116607930216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4895832812301472</v>
+        <v>0.4895832812301473</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2446985293868681</v>
+        <v>0.2535449088683071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4083006201005621</v>
+        <v>0.4172955076721734</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4886039034951958</v>
+        <v>0.5017398849877803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5605288312706291</v>
+        <v>0.5678008561398329</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20215</v>
+        <v>19328</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21773</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32078</v>
+        <v>31568</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>4560</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34737</v>
+        <v>35007</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14027</v>
+        <v>13590</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1420</v>
+        <v>1353</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16879</v>
+        <v>16932</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27094</v>
+        <v>28066</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7078</v>
+        <v>6973</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32162</v>
+        <v>31865</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6950</v>
+        <v>7303</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11426</v>
+        <v>11939</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18909</v>
+        <v>18994</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11448</v>
+        <v>11235</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27338</v>
+        <v>26157</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17798</v>
+        <v>18599</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5942</v>
+        <v>5884</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28440</v>
+        <v>28071</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34917</v>
+        <v>36058</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16286</v>
+        <v>16403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48293</v>
+        <v>48616</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15360</v>
+        <v>15915</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>91563</v>
+        <v>93580</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>30670</v>
+        <v>31495</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>125700</v>
+        <v>127331</v>
       </c>
     </row>
     <row r="24">
